--- a/biology/Zoologie/Cheiracanthiidae/Cheiracanthiidae.xlsx
+++ b/biology/Zoologie/Cheiracanthiidae/Cheiracanthiidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Cheiracanthiidae sont une famille d'araignées aranéomorphes[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Cheiracanthiidae sont une famille d'araignées aranéomorphes.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de cette famille se rencontrent sur tous les continents sauf aux pôles[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de cette famille se rencontrent sur tous les continents sauf aux pôles.
 </t>
         </is>
       </c>
@@ -543,6 +557,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -568,9 +584,11 @@
           <t>Paléontologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette famille est connue depuis le Néogène[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille est connue depuis le Néogène.
 </t>
         </is>
       </c>
@@ -599,9 +617,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette famille rassemble 362 espèces dans quatorze genres[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille rassemble 362 espèces dans quatorze genres.
 </t>
         </is>
       </c>
@@ -630,9 +650,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 21.5, 02/11/2020)[3] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 21.5, 02/11/2020) :
 Calamoneta Deeleman-Reinhold, 2001
 Calamopus Deeleman-Reinhold, 2001
 Cheiracanthium C. L. Koch, 1839
@@ -674,7 +696,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Wagner, 1887 : « Copulationsorgane des Männchens als Criterium für die Systematik der Spinnen. » Horae Societatis Entomologicae Rossicae, vol. 22, p. 3-132 (texte intégral).</t>
         </is>
